--- a/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
+++ b/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\hydgn\BHPSbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaxolt/Google Drive/2021/D.Development/TARGET_eps-us-3.2.1/InputData/hydgn/BHPSbP/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BCAC74-20DD-1D4E-A6B6-A26531217D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="11970"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25820" windowHeight="11980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BHPSbP" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -90,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,22 +437,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.73046875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -450,62 +462,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.02</v>
       </c>
@@ -513,7 +525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.76</v>
       </c>
@@ -521,7 +533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <f>0.22</f>
         <v>0.22</v>
@@ -532,8 +544,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B19" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -541,20 +553,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.1328125" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -661,427 +673,430 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.05</v>
+        <f>About!A22</f>
+        <v>0.02</v>
       </c>
       <c r="C2">
         <f>$B2</f>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:AI6" si="0">$B2</f>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="O2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="Q2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="R2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="S2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="T2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="U2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="V2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="W2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="X2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="Y2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="Z2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AA2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AB2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AC2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AD2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AE2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AF2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AG2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AH2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AI2">
         <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.95</v>
+        <f>About!A23</f>
+        <v>0.76</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:R6" si="1">$B3</f>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="G3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="I3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="J3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="K3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="P3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="Q3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="R3">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="S3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="T3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="V3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="W3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="X3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="Y3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="Z3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="AA3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="AB3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="AC3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="AD3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="AE3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="AF3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="AG3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="AH3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="AI3">
         <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <f>About!A24</f>
+        <v>0.22</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="T4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="V4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="W4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="X4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="Y4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="Z4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AA4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AB4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AC4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AD4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AE4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AF4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AH4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AI4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1221,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
